--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -592,7 +592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>SIGNUP-001</v>
       </c>
       <c r="B2" t="str">
-        <v>Successful Signup</v>
+        <v>Successful Signup with Valid Data</v>
       </c>
       <c r="C2" t="str">
         <v>Verify user can create new account with valid data</v>
@@ -683,24 +683,24 @@
         <v>SIGNUP-002</v>
       </c>
       <c r="B3" t="str">
-        <v>Signup with Invalid Email</v>
+        <v>Signup with Existing Email</v>
       </c>
       <c r="C3" t="str">
-        <v>Verify validation when invalid email format is entered</v>
+        <v>Verify error message when trying to create account with existing email</v>
       </c>
       <c r="D3" t="str">
-        <v>User is on signup page</v>
+        <v>User is on signup page and an account with test@example.com exists</v>
       </c>
       <c r="E3" t="str" xml:space="preserve">
         <v xml:space="preserve">1. Enter first name
 2. Enter last name
-3. Enter invalid email format
+3. Enter existing email (test@example.com)
 4. Enter password
 5. Confirm password
 6. Click Create Account button</v>
       </c>
       <c r="F3" t="str">
-        <v>Validation message should be displayed for invalid email format</v>
+        <v>Error message should be displayed indicating email already exists</v>
       </c>
       <c r="G3" t="str">
         <v>High</v>
@@ -712,7 +712,7 @@
         <v>6/15/2025</v>
       </c>
       <c r="J3" t="str">
-        <v>Email validation working correctly</v>
+        <v>Duplicate email validation working correctly</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -720,15 +720,89 @@
         <v>SIGNUP-003</v>
       </c>
       <c r="B4" t="str">
+        <v>Signup with Invalid Email Format</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Verify validation for various invalid email formats</v>
+      </c>
+      <c r="D4" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter first name
+2. Enter last name
+3. Enter invalid email (test@, test.com, @test.com)
+4. Enter password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Validation message should be displayed for invalid email format</v>
+      </c>
+      <c r="G4" t="str">
+        <v>High</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I4" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Email format validation working correctly</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>SIGNUP-004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Signup with Weak Password</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Verify validation for weak password requirements</v>
+      </c>
+      <c r="D5" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E5" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter first name
+2. Enter last name
+3. Enter valid email
+4. Enter weak password (123456)
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Validation message should be displayed for weak password</v>
+      </c>
+      <c r="G5" t="str">
+        <v>High</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I5" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Password strength validation working correctly</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>SIGNUP-005</v>
+      </c>
+      <c r="B6" t="str">
         <v>Signup with Mismatched Passwords</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C6" t="str">
         <v>Verify validation when password and confirm password do not match</v>
       </c>
-      <c r="D4" t="str">
-        <v>User is on signup page</v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
+      <c r="D6" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
         <v xml:space="preserve">1. Enter first name
 2. Enter last name
 3. Enter valid email
@@ -736,58 +810,354 @@
 5. Enter different confirm password
 6. Click Create Account button</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F6" t="str">
         <v>Validation message should be displayed for password mismatch</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G6" t="str">
         <v>High</v>
       </c>
-      <c r="H4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="I4" t="str">
-        <v>6/15/2025</v>
-      </c>
-      <c r="J4" t="str">
+      <c r="H6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I6" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J6" t="str">
         <v>Password mismatch validation working correctly</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>SIGNUP-004</v>
-      </c>
-      <c r="B5" t="str">
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>SIGNUP-006</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Signup with Special Characters in Name</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Verify validation for special characters in name fields</v>
+      </c>
+      <c r="D7" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E7" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter first name with special characters
+2. Enter last name with special characters
+3. Enter valid email
+4. Enter password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Validation message should be displayed for invalid characters in name fields</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I7" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Name field validation working correctly</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>SIGNUP-007</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Signup with Numbers in Name</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Verify validation for numbers in name fields</v>
+      </c>
+      <c r="D8" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E8" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter first name with numbers
+2. Enter last name with numbers
+3. Enter valid email
+4. Enter password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Validation message should be displayed for numbers in name fields</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I8" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Name field validation working correctly</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>SIGNUP-008</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Signup with Very Long Names</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Verify validation for maximum length of name fields</v>
+      </c>
+      <c r="D9" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E9" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter very long first name
+2. Enter very long last name
+3. Enter valid email
+4. Enter password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Validation message should be displayed for name length exceeding limit</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I9" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Name length validation working correctly</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>SIGNUP-009</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Signup with Very Long Password</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Verify validation for maximum length of password</v>
+      </c>
+      <c r="D10" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E10" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter first name
+2. Enter last name
+3. Enter valid email
+4. Enter very long password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Validation message should be displayed for password length exceeding limit</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I10" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Password length validation working correctly</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>SIGNUP-010</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Signup with Spaces in Email</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Verify validation for spaces in email field</v>
+      </c>
+      <c r="D11" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E11" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter first name
+2. Enter last name
+3. Enter email with spaces
+4. Enter password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Validation message should be displayed for spaces in email</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I11" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Email format validation working correctly</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>SIGNUP-011</v>
+      </c>
+      <c r="B12" t="str">
         <v>Signup with Empty Fields</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C12" t="str">
         <v>Verify validation when signup form is submitted empty</v>
       </c>
-      <c r="D5" t="str">
-        <v>User is on signup page</v>
-      </c>
-      <c r="E5" t="str" xml:space="preserve">
+      <c r="D12" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E12" t="str" xml:space="preserve">
         <v xml:space="preserve">1. Leave all fields empty
 2. Click Create Account button</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F12" t="str">
         <v>Validation messages should be displayed for all required fields</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G12" t="str">
         <v>Medium</v>
       </c>
-      <c r="H5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="I5" t="str">
-        <v>6/15/2025</v>
-      </c>
-      <c r="J5" t="str">
+      <c r="H12" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I12" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J12" t="str">
         <v>Empty field validation working correctly</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>SIGNUP-012</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Signup with SQL Injection Attempt</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Verify system security against SQL injection in form fields</v>
+      </c>
+      <c r="D13" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E13" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter SQL injection in first name
+2. Enter SQL injection in last name
+3. Enter SQL injection in email
+4. Enter SQL injection in password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F13" t="str">
+        <v>System should reject SQL injection attempts and display appropriate error message</v>
+      </c>
+      <c r="G13" t="str">
+        <v>High</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I13" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Security validation working correctly</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>SIGNUP-013</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Signup with XSS Attempt</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Verify system security against XSS attacks in form fields</v>
+      </c>
+      <c r="D14" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E14" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter XSS script in first name
+2. Enter XSS script in last name
+3. Enter XSS script in email
+4. Enter password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F14" t="str">
+        <v>System should reject XSS attempts and display appropriate error message</v>
+      </c>
+      <c r="G14" t="str">
+        <v>High</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I14" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Security validation working correctly</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>SIGNUP-014</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Signup with International Characters</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Verify system handles international characters in form fields</v>
+      </c>
+      <c r="D15" t="str">
+        <v>User is on signup page</v>
+      </c>
+      <c r="E15" t="str" xml:space="preserve">
+        <v xml:space="preserve">1. Enter first name with international characters
+2. Enter last name with international characters
+3. Enter valid email
+4. Enter password
+5. Confirm password
+6. Click Create Account button</v>
+      </c>
+      <c r="F15" t="str">
+        <v>System should accept international characters in name fields</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="I15" t="str">
+        <v>6/15/2025</v>
+      </c>
+      <c r="J15" t="str">
+        <v>International character support working correctly</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J15"/>
   </ignoredErrors>
 </worksheet>
 </file>